--- a/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
+++ b/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_OBPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D145A8F3-750A-4DDB-BB58-76EB9336BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69EA202-0336-4396-AA06-59DCEBC32A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{B0AFB746-A088-424A-8E0D-60DB73C7B080}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{E794C0BD-A7F2-4DF7-8316-99101135FE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
     <t>$/tCO2e</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Extraction</t>
-  </si>
-  <si>
-    <t>Natural Gas Extraction</t>
+    <t>CIMS.CAN.SK.Natural Gas Production</t>
+  </si>
+  <si>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>CIMS.CAN.SK.Petroleum Crude</t>
@@ -198,6 +198,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Control"/>
       <sheetName val="Macro"/>
@@ -206,6 +209,7 @@
       <sheetName val="Demand"/>
       <sheetName val="Conversions"/>
       <sheetName val="Coefficients"/>
+      <sheetName val="Macro inputs"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -251,6 +255,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -572,7 +577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4B68A-980C-4A59-8A70-DE04F072D913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCCD30-1CD8-4586-8B54-010F1E7A5D90}">
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
+++ b/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_OBPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69EA202-0336-4396-AA06-59DCEBC32A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F81E7A0-1335-46DA-AE99-2548EB50F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{E794C0BD-A7F2-4DF7-8316-99101135FE4B}"/>
+    <workbookView xWindow="39810" yWindow="5280" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF7232F-9251-4C9B-A730-EE24969DFC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -89,46 +89,52 @@
     <t>SK</t>
   </si>
   <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Govt of Canada</t>
+  </si>
+  <si>
+    <t>$/tCO2e</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Natural Gas Production</t>
+  </si>
+  <si>
+    <t>Natural Gas Production</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Petroleum Crude</t>
+  </si>
+  <si>
+    <t>Petroleum Crude</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Mining</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Petroleum Refining</t>
+  </si>
+  <si>
+    <t>Petroleum Refining</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Iron and Steel</t>
+  </si>
+  <si>
     <t>Iron and Steel</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Combustion</t>
-  </si>
-  <si>
-    <t>Govt of Canada</t>
-  </si>
-  <si>
-    <t>$/tCO2e</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.SK.Natural Gas Production</t>
-  </si>
-  <si>
-    <t>Natural Gas Production</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.SK.Petroleum Crude</t>
-  </si>
-  <si>
-    <t>Petroleum Crude</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.SK.Mining</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.SK.Petroleum Refining</t>
-  </si>
-  <si>
-    <t>Petroleum Refining</t>
   </si>
   <si>
     <t>CIMS.CAN.SK.Light Industrial.Manufacturing.Food Tobacco and Beverage</t>
@@ -577,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCCD30-1CD8-4586-8B54-010F1E7A5D90}">
-  <dimension ref="A1:X9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CFB988-A6F0-4A52-8773-68DE33D77DF4}">
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X9"/>
+      <selection sqref="A1:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,47 +700,47 @@
         <v>21</v>
       </c>
       <c r="M3">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R3">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S3">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T3">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U3">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V3">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W3">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -767,47 +773,47 @@
         <v>21</v>
       </c>
       <c r="M4">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R4">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S4">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T4">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U4">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V4">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W4">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -840,47 +846,47 @@
         <v>21</v>
       </c>
       <c r="M5">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S5">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T5">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U5">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V5">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W5">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -913,47 +919,47 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R6">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S6">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T6">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U6">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V6">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W6">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -986,47 +992,47 @@
         <v>21</v>
       </c>
       <c r="M7">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R7">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S7">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T7">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U7">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V7">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W7">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -1059,47 +1065,47 @@
         <v>21</v>
       </c>
       <c r="M8">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R8">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S8">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T8">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U8">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V8">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W8">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>
@@ -1132,47 +1138,120 @@
         <v>21</v>
       </c>
       <c r="M9">
-        <f>[1]Prices!K$26*0.1</f>
+        <f ca="1">[1]Prices!K$26*0.1</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>[1]Prices!L$26*0.1</f>
+        <f ca="1">[1]Prices!L$26*0.1</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>[1]Prices!M$26*0.1</f>
+        <f ca="1">[1]Prices!M$26*0.1</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>[1]Prices!N$26*0.1</f>
+        <f ca="1">[1]Prices!N$26*0.1</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>[1]Prices!O$26*0.1</f>
+        <f ca="1">[1]Prices!O$26*0.1</f>
         <v>3</v>
       </c>
       <c r="R9">
-        <f>[1]Prices!P$26*0.1</f>
+        <f ca="1">[1]Prices!P$26*0.1</f>
         <v>6.8341643330825832</v>
       </c>
       <c r="S9">
-        <f>[1]Prices!Q$26*0.1</f>
+        <f ca="1">[1]Prices!Q$26*0.1</f>
         <v>10.032134973994673</v>
       </c>
       <c r="T9">
-        <f>[1]Prices!R$26*0.1</f>
+        <f ca="1">[1]Prices!R$26*0.1</f>
         <v>8.2639006798408055</v>
       </c>
       <c r="U9">
-        <f>[1]Prices!S$26*0.1</f>
+        <f ca="1">[1]Prices!S$26*0.1</f>
         <v>6.775892127087694</v>
       </c>
       <c r="V9">
-        <f>[1]Prices!T$26*0.1</f>
+        <f ca="1">[1]Prices!T$26*0.1</f>
         <v>5.5579408355603324</v>
       </c>
       <c r="W9">
-        <f>[1]Prices!U$26*0.1</f>
+        <f ca="1">[1]Prices!U$26*0.1</f>
+        <v>4.5789061745779298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <f ca="1">[1]Prices!K$26*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f ca="1">[1]Prices!L$26*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f ca="1">[1]Prices!M$26*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f ca="1">[1]Prices!N$26*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f ca="1">[1]Prices!O$26*0.1</f>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f ca="1">[1]Prices!P$26*0.1</f>
+        <v>6.8341643330825832</v>
+      </c>
+      <c r="S10">
+        <f ca="1">[1]Prices!Q$26*0.1</f>
+        <v>10.032134973994673</v>
+      </c>
+      <c r="T10">
+        <f ca="1">[1]Prices!R$26*0.1</f>
+        <v>8.2639006798408055</v>
+      </c>
+      <c r="U10">
+        <f ca="1">[1]Prices!S$26*0.1</f>
+        <v>6.775892127087694</v>
+      </c>
+      <c r="V10">
+        <f ca="1">[1]Prices!T$26*0.1</f>
+        <v>5.5579408355603324</v>
+      </c>
+      <c r="W10">
+        <f ca="1">[1]Prices!U$26*0.1</f>
         <v>4.5789061745779298</v>
       </c>
     </row>

--- a/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
+++ b/csv/policies/reference/Ref_OBPS/formula_Ref_OBPS_SK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_OBPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\policies\reference\Ref_OBPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F81E7A0-1335-46DA-AE99-2548EB50F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7472EEE2-A058-46D4-8661-3474C3A640C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39810" yWindow="5280" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF7232F-9251-4C9B-A730-EE24969DFC91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87EA3D70-8046-42D0-BEDA-A8C1B9AD6E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="41">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -107,10 +107,10 @@
     <t>$/tCO2e</t>
   </si>
   <si>
-    <t>CIMS.CAN.SK.Natural Gas Production</t>
-  </si>
-  <si>
-    <t>Natural Gas Production</t>
+    <t>CIMS.CAN.SK.Natural Gas</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
   </si>
   <si>
     <t>CIMS.CAN.SK.Petroleum Crude</t>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Transportation Equipment</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Electricity</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
   </si>
 </sst>
 </file>
@@ -213,14 +228,27 @@
       <sheetName val="Prices"/>
       <sheetName val="Carbon_tax"/>
       <sheetName val="Demand"/>
+      <sheetName val="Elec markups"/>
+      <sheetName val="CER"/>
       <sheetName val="Conversions"/>
       <sheetName val="Coefficients"/>
-      <sheetName val="Macro inputs"/>
+      <sheetName val="macro inputs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>CAN</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="2">
+          <cell r="K2">
+            <v>2000</v>
+          </cell>
+        </row>
         <row r="26">
           <cell r="K26">
             <v>0</v>
@@ -259,9 +287,17 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Residential</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -583,21 +619,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CFB988-A6F0-4A52-8773-68DE33D77DF4}">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED38BD45-C828-409E-887F-4BB9BC8D4C5C}">
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X10"/>
+      <selection sqref="A1:X38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -671,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -700,51 +736,51 @@
         <v>21</v>
       </c>
       <c r="M3">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R3">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S3">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T3">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U3">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V3">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W3">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -773,51 +809,51 @@
         <v>21</v>
       </c>
       <c r="M4">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R4">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S4">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T4">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U4">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V4">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W4">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -846,51 +882,51 @@
         <v>21</v>
       </c>
       <c r="M5">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R5">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S5">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T5">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U5">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V5">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W5">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -919,51 +955,51 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R6">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S6">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T6">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U6">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V6">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W6">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -992,51 +1028,51 @@
         <v>21</v>
       </c>
       <c r="M7">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R7">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S7">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T7">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U7">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V7">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W7">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1065,51 +1101,51 @@
         <v>21</v>
       </c>
       <c r="M8">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R8">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S8">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T8">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U8">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V8">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W8">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1138,51 +1174,51 @@
         <v>21</v>
       </c>
       <c r="M9">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R9">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S9">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T9">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U9">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V9">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W9">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1211,48 +1247,2092 @@
         <v>21</v>
       </c>
       <c r="M10">
-        <f ca="1">[1]Prices!K$26*0.1</f>
+        <f>[1]Prices!K$26</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f ca="1">[1]Prices!L$26*0.1</f>
+        <f>[1]Prices!L$26</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f ca="1">[1]Prices!M$26*0.1</f>
+        <f>[1]Prices!M$26</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f ca="1">[1]Prices!N$26*0.1</f>
+        <f>[1]Prices!N$26</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f ca="1">[1]Prices!O$26*0.1</f>
-        <v>3</v>
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
       </c>
       <c r="R10">
-        <f ca="1">[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
       </c>
       <c r="S10">
-        <f ca="1">[1]Prices!Q$26*0.1</f>
-        <v>10.032134973994673</v>
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
       </c>
       <c r="T10">
-        <f ca="1">[1]Prices!R$26*0.1</f>
-        <v>8.2639006798408055</v>
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
       </c>
       <c r="U10">
-        <f ca="1">[1]Prices!S$26*0.1</f>
-        <v>6.775892127087694</v>
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
       </c>
       <c r="V10">
-        <f ca="1">[1]Prices!T$26*0.1</f>
-        <v>5.5579408355603324</v>
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
       </c>
       <c r="W10">
-        <f ca="1">[1]Prices!U$26*0.1</f>
-        <v>4.5789061745779298</v>
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S11">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T11">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U11">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V11">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W11">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S12">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T12">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U12">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V12">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W12">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S13">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T13">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U13">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V13">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W13">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S14">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T14">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U14">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V14">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W14">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R15">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S15">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T15">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U15">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V15">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W15">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R16">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S16">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T16">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U16">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V16">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W16">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R17">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S17">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T17">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U17">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V17">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W17">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S18">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T18">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U18">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V18">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W18">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S19">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T19">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U19">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V19">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W19">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S20">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T20">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U20">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V20">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W20">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S21">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T21">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U21">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V21">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W21">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R22">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S22">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T22">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U22">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V22">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W22">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S23">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T23">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U23">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V23">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W23">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R24">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S24">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T24">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U24">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V24">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W24">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R25">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S25">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T25">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U25">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V25">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W25">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R26">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S26">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T26">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U26">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V26">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W26">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R27">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S27">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T27">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U27">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V27">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W27">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R28">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S28">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T28">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U28">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V28">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W28">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S29">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T29">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U29">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V29">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W29">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S30">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T30">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U30">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V30">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W30">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S31">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T31">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U31">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V31">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W31">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S32">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T32">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U32">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V32">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W32">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S33">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T33">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U33">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V33">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W33">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S34">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T34">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U34">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V34">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W34">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R35">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S35">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T35">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U35">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V35">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W35">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S36">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T36">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U36">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V36">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W36">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S37">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T37">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U37">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V37">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W37">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <f>[1]Prices!K$26</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>[1]Prices!L$26</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>[1]Prices!M$26</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>[1]Prices!N$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>[1]Prices!O$26</f>
+        <v>30</v>
+      </c>
+      <c r="R38">
+        <f>[1]Prices!P$26</f>
+        <v>68.341643330825832</v>
+      </c>
+      <c r="S38">
+        <f>[1]Prices!Q$26</f>
+        <v>100.32134973994673</v>
+      </c>
+      <c r="T38">
+        <f>[1]Prices!R$26</f>
+        <v>82.639006798408047</v>
+      </c>
+      <c r="U38">
+        <f>[1]Prices!S$26</f>
+        <v>67.75892127087694</v>
+      </c>
+      <c r="V38">
+        <f>[1]Prices!T$26</f>
+        <v>55.57940835560332</v>
+      </c>
+      <c r="W38">
+        <f>[1]Prices!U$26</f>
+        <v>45.789061745779293</v>
       </c>
     </row>
   </sheetData>
